--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -1,81 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Libro Mayor" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Debe</t>
-  </si>
-  <si>
-    <t>Haber</t>
-  </si>
-  <si>
-    <t>Debe Saldos</t>
-  </si>
-  <si>
-    <t>Haber Saldos</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
-  </si>
-  <si>
-    <t>Activo Corriente</t>
-  </si>
-  <si>
-    <t>Pasivo Corriente</t>
-  </si>
-  <si>
-    <t>Otros gastos financieros</t>
-  </si>
-  <si>
-    <t>Capital inicial</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>Efectivo en caja en el país</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,16 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,151 +433,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="120" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="1" customWidth="1" min="8" max="8"/>
+    <col width="1" customWidth="1" min="9" max="9"/>
+    <col width="1" customWidth="1" min="10" max="10"/>
+    <col width="1" customWidth="1" min="11" max="11"/>
+    <col width="1" customWidth="1" min="12" max="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cuenta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Debe</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Haber</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Debe Saldos</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Haber Saldos</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Efectivo  equivalentes de efectivo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53172</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18828</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31101</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Capital inicial</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7500</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>529</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31501</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Resultados acumulados de ejercicios anteriores</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61275</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61275</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>31101</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1260803</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software  programas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>53172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53172</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>1110101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>800</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>111010102</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>211020205</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Impuesto sobre la renta a pagar</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3225</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3225</v>
       </c>
     </row>
   </sheetData>

--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,10 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Cambria"/>
+      <sz val="12"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,14 +68,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,9 +451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,13 +461,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="120" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="1" customWidth="1" min="7" max="7"/>
     <col width="1" customWidth="1" min="8" max="8"/>
     <col width="1" customWidth="1" min="9" max="9"/>
     <col width="1" customWidth="1" min="10" max="10"/>
@@ -461,148 +476,229 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Debe</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Haber</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Debe Saldos</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Haber Saldos</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Efectivo  equivalentes de efectivo</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>72000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>53172</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>18828</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>31101</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>7500</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>7500</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>31501</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Resultados acumulados de ejercicios anteriores</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>61275</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>61275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>1260803</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Software  programas</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>53172</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>53172</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>211020205</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Impuesto sobre la renta a pagar</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>3225</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>3225</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -516,17 +516,25 @@
           <t>Efectivo  equivalentes de efectivo</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>53172</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>18828</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>72000.0</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>53172.0</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>18828.0</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -538,17 +546,25 @@
           <t>Capital inicial</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>7500</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>7500</v>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>7500.0</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>7500.0</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -560,17 +576,25 @@
           <t>Resultados acumulados de ejercicios anteriores</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>61275</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>61275</v>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>61275.0</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>61275.0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -582,17 +606,25 @@
           <t>Software  programas</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>53172</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>53172</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>53172.0</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>53172.0</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -604,17 +636,25 @@
           <t>Impuesto sobre la renta a pagar</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>3225</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>3225</v>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>3225.0</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>3225.0</t>
+        </is>
       </c>
     </row>
     <row r="7">

--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -509,71 +509,71 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Efectivo  equivalentes de efectivo</t>
+          <t>Pasivo Corriente</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>72000.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>53172.0</t>
+          <t>20002.0</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>18828.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20002.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>31101</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Capital inicial</t>
+          <t>Gastos de funcionamiento</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>7500.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>7500.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>31501</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Resultados acumulados de ejercicios anteriores</t>
+          <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>61275.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -593,22 +593,22 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>61275.0</t>
+          <t>2000.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>1260803</v>
+        <v>511</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Software  programas</t>
+          <t>Gastos en personal</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>53172.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>53172.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -629,11 +629,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>211020205</v>
+        <v>31101</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Impuesto sobre la renta a pagar</t>
+          <t>Capital inicial</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>3225.0</t>
+          <t>1000.0</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -653,25 +653,69 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>3225.0</t>
+          <t>1000.0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>44101</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Ventas de bienes</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>33002.0</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>22000.0</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>11002.0</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n"/>

--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -509,81 +509,81 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Pasivo Corriente</t>
+          <t>Activo Corriente</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000.0</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>20002.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000.0</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>20002.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Gastos de funcionamiento</t>
+          <t>Pasivo Corriente</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>20000.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20002.0</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>20000.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20002.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Otros pasivos a corto plazo</t>
+          <t>Gastos de funcionamiento</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -593,57 +593,57 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>511</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Gastos en personal</t>
+          <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>31101</v>
+        <v>511</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Capital inicial</t>
+          <t>Gastos en personal</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -653,27 +653,27 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>44101</v>
+        <v>521</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Ventas de bienes</t>
+          <t>Intereses sobre endeudamiento público</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -683,79 +683,189 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
+        <v>11101</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>-1000.0</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>31101</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Capital inicial</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>31502</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Resultado del ejercicio</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>24000.0</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>24000.0</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44101</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Ventas de bienes</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>110000.0</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>110000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
         <v>1110101</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Caja</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>33002.0</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>22000.0</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>11002.0</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>134002.0</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>25000.0</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>109002.0</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
+      <c r="A13" s="3" t="n">
+        <v>541010102</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Becas</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>

--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -509,26 +509,26 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>11</v>
+        <v>11402</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Activo Corriente</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1000.0</t>
+          <t>248976.0</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>248976.0</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>-</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -539,11 +539,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>21</v>
+        <v>31101</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Pasivo Corriente</t>
+          <t>Capital inicial</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>20002.0</t>
+          <t>1000000.0</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
@@ -563,32 +563,32 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>20002.0</t>
+          <t>1000000.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>51</v>
+        <v>1110101</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Gastos de funcionamiento</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>20000.0</t>
+          <t>1167326.0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>20000.0</t>
+          <t>167326.0</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000000.0</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -599,273 +599,97 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>219</v>
+        <v>2110101</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Otros pasivos a corto plazo</t>
+          <t>Deudas por adquisición de inventarios c/p</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>81650.0</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>81650.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>511</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Gastos en personal</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>521</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Intereses sobre endeudamiento público</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>11101</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>-1000.0</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>31101</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Capital inicial</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>31502</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Resultado del ejercicio</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>24000.0</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>24000.0</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44101</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Ventas de bienes</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>110000.0</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>110000.0</t>
-        </is>
-      </c>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>134002.0</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>25000.0</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>109002.0</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>541010102</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Becas</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>1000.0</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>

--- a/Mayor.xlsx
+++ b/Mayor.xlsx
@@ -518,17 +518,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>248976.0</t>
+          <t>140000.0</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>248976.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>140000.0</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>1167326.0</t>
+          <t>1000000.0</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>167326.0</t>
+          <t>60000.0</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>1000000.0</t>
+          <t>940000.0</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>81650.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>81650.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80000.0</t>
         </is>
       </c>
     </row>
